--- a/syousai_portfolio.xlsx
+++ b/syousai_portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{00E452A3-C938-4BEC-9F21-6461DE9D2F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2BBCAFF-3475-4BCD-9A36-886A70277F94}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{00E452A3-C938-4BEC-9F21-6461DE9D2F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4013AB71-130D-4D4B-8DE5-F85AAB45C13A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -24,40 +24,43 @@
     <sheet name="イベント一覧_新規会員登録" sheetId="28" r:id="rId9"/>
     <sheet name="イベント一覧_予定・設定確認" sheetId="38" r:id="rId10"/>
     <sheet name="イベント一覧_アカウント更新、削除" sheetId="39" r:id="rId11"/>
-    <sheet name="更新仕様書_予定" sheetId="26" r:id="rId12"/>
-    <sheet name="更新仕様書_設定" sheetId="40" r:id="rId13"/>
-    <sheet name="更新仕様書_アカウント" sheetId="41" r:id="rId14"/>
-    <sheet name="補足説明" sheetId="27" r:id="rId15"/>
+    <sheet name="イベント一覧_ログアウト" sheetId="42" r:id="rId12"/>
+    <sheet name="更新仕様書_予定" sheetId="26" r:id="rId13"/>
+    <sheet name="更新仕様書_設定" sheetId="40" r:id="rId14"/>
+    <sheet name="更新仕様書_アカウント" sheetId="41" r:id="rId15"/>
+    <sheet name="補足説明" sheetId="27" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'イベント一覧_アカウント更新、削除'!$A$1:$AG$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">イベント一覧_ログアウト!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">イベント一覧_ログイン!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">イベント一覧_新規会員登録!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">イベント一覧_設定入力!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">イベント一覧_予定・設定確認!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">イベント一覧_予定入力!$A$1:$AG$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">更新仕様書_アカウント!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">更新仕様書_設定!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">更新仕様書_予定!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">更新仕様書_アカウント!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">更新仕様書_設定!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">更新仕様書_予定!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">項目説明_アカウント!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">項目説明_設定!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">項目説明_予定入力!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">補足説明!$A$1:$AG$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">補足説明!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目次・概要!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'イベント一覧_アカウント更新、削除'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">イベント一覧_ログアウト!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">イベント一覧_ログイン!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">イベント一覧_新規会員登録!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">イベント一覧_設定入力!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">イベント一覧_予定・設定確認!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">イベント一覧_予定入力!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">更新仕様書_アカウント!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">更新仕様書_設定!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">更新仕様書_予定!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">更新仕様書_アカウント!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">更新仕様書_設定!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">更新仕様書_予定!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">項目説明_アカウント!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">項目説明_設定!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">項目説明_予定入力!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="14">補足説明!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="15">補足説明!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">目次・概要!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="192">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -2042,6 +2045,40 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トップページに戻るボタン.クリック</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウトしました。という表示がされる。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面へ戻るボタン.クリック</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2414,6 +2451,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="5" applyFill="1" applyBorder="1"/>
@@ -2467,6 +2506,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2474,9 +2516,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2542,19 +2581,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4266,20 +4303,20 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="81"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
@@ -4298,26 +4335,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -4336,22 +4373,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -4566,18 +4603,18 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
       <c r="AA17" s="20"/>
@@ -4599,16 +4636,16 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="AA18" s="20"/>
@@ -4630,16 +4667,16 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
@@ -4871,12 +4908,12 @@
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="94">
+      <c r="F26" s="96">
         <v>38487</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="30" t="s">
         <v>66</v>
       </c>
@@ -5522,127 +5559,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -7283,127 +7320,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -9026,6 +9063,1731 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E1B62C-84C7-4CDC-985B-22933566F338}">
+  <dimension ref="A1:FU43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="4" customWidth="1"/>
+    <col min="7" max="31" width="4.109375" style="1" customWidth="1"/>
+    <col min="32" max="33" width="4.109375" style="5" customWidth="1"/>
+    <col min="34" max="37" width="4" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
+    </row>
+    <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
+      <c r="A2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="101"/>
+    </row>
+    <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
+      <c r="A3" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="101"/>
+    </row>
+    <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="6"/>
+      <c r="CS4" s="6"/>
+      <c r="CT4" s="6"/>
+      <c r="CU4" s="6"/>
+      <c r="CV4" s="6"/>
+      <c r="CW4" s="6"/>
+      <c r="CX4" s="6"/>
+      <c r="CY4" s="6"/>
+      <c r="CZ4" s="6"/>
+      <c r="DA4" s="6"/>
+      <c r="DB4" s="6"/>
+      <c r="DC4" s="6"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
+      <c r="DN4" s="6"/>
+      <c r="DO4" s="6"/>
+      <c r="DP4" s="6"/>
+      <c r="DQ4" s="6"/>
+      <c r="DR4" s="6"/>
+      <c r="DS4" s="6"/>
+      <c r="DT4" s="6"/>
+      <c r="DU4" s="6"/>
+      <c r="DV4" s="6"/>
+      <c r="DW4" s="6"/>
+      <c r="DX4" s="6"/>
+      <c r="DY4" s="6"/>
+      <c r="DZ4" s="6"/>
+      <c r="EA4" s="6"/>
+      <c r="EB4" s="6"/>
+      <c r="EC4" s="6"/>
+      <c r="ED4" s="6"/>
+      <c r="EE4" s="6"/>
+      <c r="EF4" s="6"/>
+      <c r="EG4" s="6"/>
+      <c r="EH4" s="6"/>
+      <c r="EI4" s="6"/>
+      <c r="EJ4" s="6"/>
+      <c r="EK4" s="6"/>
+      <c r="EL4" s="6"/>
+      <c r="EM4" s="6"/>
+      <c r="EN4" s="6"/>
+      <c r="EO4" s="6"/>
+      <c r="EP4" s="6"/>
+      <c r="EQ4" s="6"/>
+      <c r="ER4" s="6"/>
+      <c r="ES4" s="6"/>
+      <c r="ET4" s="6"/>
+      <c r="EU4" s="6"/>
+      <c r="EV4" s="6"/>
+      <c r="EW4" s="6"/>
+      <c r="EX4" s="6"/>
+      <c r="EY4" s="6"/>
+      <c r="EZ4" s="6"/>
+      <c r="FA4" s="6"/>
+      <c r="FB4" s="6"/>
+      <c r="FC4" s="6"/>
+      <c r="FD4" s="6"/>
+      <c r="FE4" s="6"/>
+      <c r="FF4" s="6"/>
+      <c r="FG4" s="6"/>
+      <c r="FH4" s="6"/>
+      <c r="FI4" s="6"/>
+      <c r="FJ4" s="6"/>
+      <c r="FK4" s="6"/>
+      <c r="FL4" s="6"/>
+      <c r="FM4" s="6"/>
+      <c r="FN4" s="6"/>
+      <c r="FO4" s="6"/>
+      <c r="FP4" s="6"/>
+      <c r="FQ4" s="6"/>
+      <c r="FR4" s="6"/>
+      <c r="FS4" s="6"/>
+      <c r="FT4" s="6"/>
+      <c r="FU4" s="6"/>
+    </row>
+    <row r="5" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="71"/>
+    </row>
+    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A6" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="71"/>
+    </row>
+    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A7" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="71"/>
+    </row>
+    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="71"/>
+    </row>
+    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="71"/>
+    </row>
+    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="71"/>
+    </row>
+    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="71"/>
+    </row>
+    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="71"/>
+    </row>
+    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="71"/>
+    </row>
+    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="71"/>
+    </row>
+    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="71"/>
+    </row>
+    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="71"/>
+    </row>
+    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="71"/>
+    </row>
+    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="71"/>
+    </row>
+    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="71"/>
+    </row>
+    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="71"/>
+    </row>
+    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="71"/>
+    </row>
+    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="71"/>
+    </row>
+    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="71"/>
+    </row>
+    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="71"/>
+    </row>
+    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="71"/>
+    </row>
+    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="71"/>
+    </row>
+    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="71"/>
+    </row>
+    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="71"/>
+    </row>
+    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="71"/>
+    </row>
+    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="71"/>
+    </row>
+    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="71"/>
+    </row>
+    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="70"/>
+      <c r="AG32" s="71"/>
+    </row>
+    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="71"/>
+    </row>
+    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="71"/>
+    </row>
+    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="70"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="70"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="71"/>
+    </row>
+    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="70"/>
+      <c r="AF36" s="70"/>
+      <c r="AG36" s="71"/>
+    </row>
+    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="70"/>
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="71"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="71"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="71"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="71"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
+      <c r="Z41" s="70"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="70"/>
+      <c r="AE41" s="70"/>
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="71"/>
+    </row>
+    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="71"/>
+    </row>
+    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="70"/>
+      <c r="AG43" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
@@ -9044,179 +10806,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="125" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="122" t="s">
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="116" t="s">
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="118"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
@@ -9230,19 +10992,19 @@
         <v>26</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="113" t="s">
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="7" t="s">
         <v>31</v>
       </c>
@@ -9253,12 +11015,12 @@
       <c r="AA5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="123"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -10820,7 +12582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBFA080-9004-43C5-AAA3-B80370B9BA87}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
@@ -10839,179 +12601,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="125" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="122" t="s">
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="116" t="s">
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="118"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
@@ -11025,19 +12787,19 @@
         <v>26</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="113" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="7" t="s">
         <v>31</v>
       </c>
@@ -11048,12 +12810,12 @@
       <c r="AA5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="123"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -11228,13 +12990,13 @@
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
       <c r="P6" s="71"/>
-      <c r="Q6" s="106" t="s">
+      <c r="Q6" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="108"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="111"/>
       <c r="V6" s="69" t="s">
         <v>74</v>
       </c>
@@ -11300,13 +13062,13 @@
       <c r="AG7" s="71"/>
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="72" t="s">
         <v>13</v>
       </c>
@@ -11318,7 +13080,7 @@
         <v>185</v>
       </c>
       <c r="J8" s="70"/>
-      <c r="K8" s="136" t="s">
+      <c r="K8" s="133" t="s">
         <v>125</v>
       </c>
       <c r="L8" s="134"/>
@@ -11331,13 +13093,13 @@
       <c r="S8" s="70"/>
       <c r="T8" s="70"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="109" t="s">
+      <c r="V8" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
       <c r="AA8" s="73" t="s">
         <v>19</v>
       </c>
@@ -11476,9 +13238,9 @@
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="135"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
       <c r="Q11" s="69"/>
       <c r="R11" s="70"/>
       <c r="S11" s="70"/>
@@ -12588,13 +14350,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:P5"/>
-    <mergeCell ref="Q4:AA4"/>
     <mergeCell ref="AB4:AG5"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="Q5:U5"/>
@@ -12607,6 +14362,13 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:P5"/>
+    <mergeCell ref="Q4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12619,11 +14381,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A942306C-1629-4B58-BE82-57F8B217CFFF}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -12638,179 +14400,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="125" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="122" t="s">
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="116" t="s">
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="118"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
@@ -12824,19 +14586,19 @@
         <v>26</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="113" t="s">
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="7" t="s">
         <v>31</v>
       </c>
@@ -12847,12 +14609,12 @@
       <c r="AA5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="123"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -14419,21 +16181,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:P5"/>
     <mergeCell ref="Q4:AA4"/>
     <mergeCell ref="AB4:AG5"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14446,7 +16208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FU43"/>
   <sheetViews>
@@ -14465,127 +16227,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="104"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="14"/>
@@ -16039,127 +17801,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="104"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="41"/>
@@ -17597,127 +19359,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -19441,127 +21203,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -19779,13 +21541,13 @@
         <v>19</v>
       </c>
       <c r="J5" s="72"/>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
       <c r="P5" s="69" t="s">
         <v>74</v>
       </c>
@@ -19826,13 +21588,13 @@
         <v>19</v>
       </c>
       <c r="J6" s="72"/>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
       <c r="P6" s="69" t="s">
         <v>121</v>
       </c>
@@ -19857,13 +21619,13 @@
       <c r="AG6" s="62"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="72" t="s">
         <v>13</v>
       </c>
@@ -19873,29 +21635,29 @@
         <v>19</v>
       </c>
       <c r="J7" s="76"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="109" t="s">
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109" t="s">
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
       <c r="AB7" s="70"/>
       <c r="AC7" s="61"/>
       <c r="AD7" s="61"/>
@@ -19924,13 +21686,13 @@
         <v>19</v>
       </c>
       <c r="J8" s="72"/>
-      <c r="K8" s="106" t="s">
+      <c r="K8" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="111"/>
       <c r="P8" s="69" t="s">
         <v>127</v>
       </c>
@@ -19975,13 +21737,13 @@
         <v>19</v>
       </c>
       <c r="J9" s="72"/>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="108"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
       <c r="P9" s="69" t="s">
         <v>87</v>
       </c>
@@ -20024,13 +21786,13 @@
       </c>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="69" t="s">
         <v>88</v>
       </c>
@@ -20075,13 +21837,13 @@
         <v>19</v>
       </c>
       <c r="J11" s="63"/>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="108"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
       <c r="P11" s="60" t="s">
         <v>84</v>
       </c>
@@ -20126,13 +21888,13 @@
         <v>19</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111"/>
       <c r="P12" s="60" t="s">
         <v>160</v>
       </c>
@@ -21241,6 +23003,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -21250,17 +23023,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K10:O10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21292,127 +23054,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -21632,13 +23394,13 @@
         <v>19</v>
       </c>
       <c r="J5" s="72"/>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
       <c r="P5" s="69" t="s">
         <v>74</v>
       </c>
@@ -21679,13 +23441,13 @@
         <v>19</v>
       </c>
       <c r="J6" s="72"/>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
       <c r="P6" s="69" t="s">
         <v>121</v>
       </c>
@@ -21710,13 +23472,13 @@
       <c r="AG6" s="71"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="72" t="s">
         <v>13</v>
       </c>
@@ -21726,29 +23488,29 @@
         <v>19</v>
       </c>
       <c r="J7" s="76"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="109" t="s">
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109" t="s">
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
       <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
       <c r="AD7" s="70"/>
@@ -21777,13 +23539,13 @@
         <v>19</v>
       </c>
       <c r="J8" s="72"/>
-      <c r="K8" s="106" t="s">
+      <c r="K8" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="111"/>
       <c r="P8" s="69" t="s">
         <v>129</v>
       </c>
@@ -21828,13 +23590,13 @@
         <v>19</v>
       </c>
       <c r="J9" s="72"/>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="108"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
       <c r="P9" s="69" t="s">
         <v>87</v>
       </c>
@@ -21879,13 +23641,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="72"/>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="69" t="s">
         <v>161</v>
       </c>
@@ -21918,11 +23680,11 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="108"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
       <c r="P11" s="69"/>
       <c r="Q11" s="70"/>
       <c r="R11" s="75"/>
@@ -23064,6 +24826,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="P7:T7"/>
@@ -23077,12 +24845,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23114,127 +24876,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -24849,127 +26611,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -26582,127 +28344,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -28323,127 +30085,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="97" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:177" s="40" customFormat="1" ht="12">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="97" t="s">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="99"/>
+      <c r="AG3" s="101"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7" t="s">
